--- a/reports/productos/productos.xlsx
+++ b/reports/productos/productos.xlsx
@@ -11,7 +11,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+  <si>
+    <t>Fecha de creación</t>
+  </si>
   <si>
     <t>Codigo</t>
   </si>
@@ -35,6 +38,9 @@
   </si>
   <si>
     <t>estado</t>
+  </si>
+  <si>
+    <t>18/04/2021</t>
   </si>
   <si>
     <t>LB0001</t>
@@ -445,18 +451,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="1" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="6" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -481,57 +487,66 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>1200</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2">
+        <v>200</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="C2">
-        <v>1200</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2">
-        <v>100</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2">
-        <v>200</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
       <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3">
         <v>1500.67</v>
       </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3">
-        <v>200</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3">
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3">
+        <v>180</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3">
         <v>0</v>
       </c>
-      <c r="H3" t="s">
-        <v>17</v>
+      <c r="I3" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/reports/productos/productos.xlsx
+++ b/reports/productos/productos.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Fecha de creación</t>
   </si>
@@ -56,21 +56,6 @@
   </si>
   <si>
     <t>Activo</t>
-  </si>
-  <si>
-    <t>LB0002</t>
-  </si>
-  <si>
-    <t>ZAPATOS</t>
-  </si>
-  <si>
-    <t>UNIDAD</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Inactivo</t>
   </si>
 </sst>
 </file>
@@ -451,7 +436,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="2" width="20" customWidth="1"/>
@@ -520,35 +505,6 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3">
-        <v>1500.67</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3">
-        <v>180</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/reports/productos/productos.xlsx
+++ b/reports/productos/productos.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>Fecha de creación</t>
   </si>
@@ -37,7 +37,7 @@
     <t>¿Cantidad minima?</t>
   </si>
   <si>
-    <t>estado</t>
+    <t>Estado</t>
   </si>
   <si>
     <t>18/04/2021</t>
@@ -56,6 +56,27 @@
   </si>
   <si>
     <t>Activo</t>
+  </si>
+  <si>
+    <t>27/04/2021</t>
+  </si>
+  <si>
+    <t>LB0003</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>LB0002</t>
+  </si>
+  <si>
+    <t>ZAPATOS</t>
+  </si>
+  <si>
+    <t>UNIDAD</t>
+  </si>
+  <si>
+    <t>Inactivo</t>
   </si>
 </sst>
 </file>
@@ -436,7 +457,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="2" width="20" customWidth="1"/>
@@ -487,13 +508,13 @@
         <v>11</v>
       </c>
       <c r="D2">
-        <v>1200</v>
+        <v>1200.5446543232</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
       <c r="F2">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
@@ -503,6 +524,64 @@
       </c>
       <c r="I2" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>150</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4">
+        <v>1500.67</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <v>180</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/reports/productos/productos.xlsx
+++ b/reports/productos/productos.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="35">
   <si>
     <t>Fecha de creación</t>
   </si>
@@ -40,43 +40,82 @@
     <t>Estado</t>
   </si>
   <si>
-    <t>18/04/2021</t>
+    <t>03/06/2021</t>
   </si>
   <si>
     <t>LB0001</t>
   </si>
   <si>
-    <t>LADRILLOS</t>
-  </si>
-  <si>
-    <t>BOLSAS</t>
-  </si>
-  <si>
-    <t>Si</t>
+    <t>PRODUCTO 1</t>
+  </si>
+  <si>
+    <t>UNIDAD</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
   <si>
     <t>Activo</t>
   </si>
   <si>
-    <t>27/04/2021</t>
+    <t>LB0002</t>
+  </si>
+  <si>
+    <t>PRODUCTO 2</t>
   </si>
   <si>
     <t>LB0003</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>LB0002</t>
-  </si>
-  <si>
-    <t>ZAPATOS</t>
-  </si>
-  <si>
-    <t>UNIDAD</t>
-  </si>
-  <si>
-    <t>Inactivo</t>
+    <t>PRODUCTO 3</t>
+  </si>
+  <si>
+    <t>LB0004</t>
+  </si>
+  <si>
+    <t>PRODUCTO 4</t>
+  </si>
+  <si>
+    <t>LB0005</t>
+  </si>
+  <si>
+    <t>PRODUCTO 5</t>
+  </si>
+  <si>
+    <t>LB0006</t>
+  </si>
+  <si>
+    <t>PRODUCTO 6</t>
+  </si>
+  <si>
+    <t>LB0007</t>
+  </si>
+  <si>
+    <t>PRODUCTO 7</t>
+  </si>
+  <si>
+    <t>LB0008</t>
+  </si>
+  <si>
+    <t>PRODUCTO 8</t>
+  </si>
+  <si>
+    <t>LB0009</t>
+  </si>
+  <si>
+    <t>PRODUCTO 9</t>
+  </si>
+  <si>
+    <t>LB0010</t>
+  </si>
+  <si>
+    <t>PRODUCTO 10</t>
+  </si>
+  <si>
+    <t>LB0011</t>
+  </si>
+  <si>
+    <t>PRODUCTO 11</t>
   </si>
 </sst>
 </file>
@@ -457,7 +496,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I12"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="2" width="20" customWidth="1"/>
@@ -508,19 +547,19 @@
         <v>11</v>
       </c>
       <c r="D2">
-        <v>1200.5446543232</v>
+        <v>100</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
       <c r="F2">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
       </c>
       <c r="H2">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I2" t="s">
         <v>14</v>
@@ -528,13 +567,13 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
       </c>
       <c r="D3">
         <v>150</v>
@@ -543,10 +582,10 @@
         <v>12</v>
       </c>
       <c r="F3">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -560,28 +599,260 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4">
+        <v>150</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4">
+        <v>40</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="D4">
-        <v>1500.67</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="C5" t="s">
         <v>20</v>
       </c>
-      <c r="F4">
-        <v>180</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="D5">
+        <v>170</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <v>50</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
         <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6">
+        <v>200</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7">
+        <v>800</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7">
+        <v>60</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8">
+        <v>680</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8">
+        <v>200</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9">
+        <v>200</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10">
+        <v>120</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10">
+        <v>200</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11">
+        <v>110</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11">
+        <v>300</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12">
+        <v>150</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12">
+        <v>200</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
